--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H2">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I2">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J2">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N2">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q2">
-        <v>0.2228184720348889</v>
+        <v>3.033419086133334</v>
       </c>
       <c r="R2">
-        <v>2.005366248314</v>
+        <v>27.3007717752</v>
       </c>
       <c r="S2">
-        <v>0.002410373260419335</v>
+        <v>0.015491413192651</v>
       </c>
       <c r="T2">
-        <v>0.002426199986362829</v>
+        <v>0.01556467044366105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H3">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I3">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J3">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N3">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q3">
-        <v>0.5975827206054445</v>
+        <v>3.593630705405667</v>
       </c>
       <c r="R3">
-        <v>5.378244485449</v>
+        <v>32.342676348651</v>
       </c>
       <c r="S3">
-        <v>0.006464443443497199</v>
+        <v>0.01835236627003609</v>
       </c>
       <c r="T3">
-        <v>0.006506889556071335</v>
+        <v>0.01843915266490871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,25 +655,25 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9331043333333334</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H4">
-        <v>2.799313</v>
+        <v>22.398687</v>
       </c>
       <c r="I4">
-        <v>0.0200380644147157</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J4">
-        <v>0.0201696361339749</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N4">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q4">
-        <v>1.031947142259</v>
+        <v>10.2715401096</v>
       </c>
       <c r="R4">
-        <v>9.287524280331001</v>
+        <v>92.44386098640001</v>
       </c>
       <c r="S4">
-        <v>0.01116324771079917</v>
+        <v>0.05245588144746949</v>
       </c>
       <c r="T4">
-        <v>0.01123654659154074</v>
+        <v>0.0527039397508897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H5">
         <v>22.398687</v>
       </c>
       <c r="I5">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J5">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N5">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q5">
-        <v>1.782880732854</v>
+        <v>12.168487400373</v>
       </c>
       <c r="R5">
-        <v>16.045926595686</v>
+        <v>109.516386603357</v>
       </c>
       <c r="S5">
-        <v>0.01928658789256584</v>
+        <v>0.06214342987108772</v>
       </c>
       <c r="T5">
-        <v>0.01941322534991452</v>
+        <v>0.06243729956419301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.466228999999999</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H6">
-        <v>22.398687</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I6">
-        <v>0.1603344581013467</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J6">
-        <v>0.1613872284624098</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,33 +806,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6404243333333333</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N6">
-        <v>1.921273</v>
+        <v>4.1272</v>
       </c>
       <c r="O6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q6">
-        <v>4.781554729838999</v>
+        <v>43.50182527288889</v>
       </c>
       <c r="R6">
-        <v>43.03399256855099</v>
+        <v>391.516427456</v>
       </c>
       <c r="S6">
-        <v>0.05172520733483391</v>
+        <v>0.2221601205772885</v>
       </c>
       <c r="T6">
-        <v>0.05206483966244959</v>
+        <v>0.223210692240129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.466228999999999</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H7">
-        <v>22.398687</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I7">
-        <v>0.1603344581013467</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J7">
-        <v>0.1613872284624098</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105929</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N7">
-        <v>3.317787</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q7">
-        <v>8.257119171741</v>
+        <v>51.53573924436444</v>
       </c>
       <c r="R7">
-        <v>74.31407254566899</v>
+        <v>463.82165319928</v>
       </c>
       <c r="S7">
-        <v>0.08932266287394693</v>
+        <v>0.2631886357123281</v>
       </c>
       <c r="T7">
-        <v>0.08990916345004572</v>
+        <v>0.2644332268745158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.07980133333334</v>
+        <v>0.9199225</v>
       </c>
       <c r="H8">
-        <v>87.23940400000001</v>
+        <v>1.839845</v>
       </c>
       <c r="I8">
-        <v>0.6244777903912161</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J8">
-        <v>0.6285781672949164</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N8">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q8">
-        <v>6.944043306523556</v>
+        <v>1.265568047333334</v>
       </c>
       <c r="R8">
-        <v>62.496389758712</v>
+        <v>7.593408284000001</v>
       </c>
       <c r="S8">
-        <v>0.07511826175083657</v>
+        <v>0.006463148344480157</v>
       </c>
       <c r="T8">
-        <v>0.07561149496147851</v>
+        <v>0.004329141258636083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.07980133333334</v>
+        <v>0.9199225</v>
       </c>
       <c r="H9">
-        <v>87.23940400000001</v>
+        <v>1.839845</v>
       </c>
       <c r="I9">
-        <v>0.6244777903912161</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J9">
-        <v>0.6285781672949164</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N9">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q9">
-        <v>18.62341238236578</v>
+        <v>1.499293063549167</v>
       </c>
       <c r="R9">
-        <v>167.610711441292</v>
+        <v>8.995758381295001</v>
       </c>
       <c r="S9">
-        <v>0.2014616419108557</v>
+        <v>0.007656762117206113</v>
       </c>
       <c r="T9">
-        <v>0.2027844570312387</v>
+        <v>0.005128646755797904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.07980133333334</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H10">
-        <v>87.23940400000001</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I10">
-        <v>0.6244777903912161</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J10">
-        <v>0.6285781672949164</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N10">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q10">
-        <v>32.160195608772</v>
+        <v>31.55768095822222</v>
       </c>
       <c r="R10">
-        <v>289.441760478948</v>
+        <v>284.019128624</v>
       </c>
       <c r="S10">
-        <v>0.3478978867295238</v>
+        <v>0.1611623917580199</v>
       </c>
       <c r="T10">
-        <v>0.3501822153021993</v>
+        <v>0.1619245116265932</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9112975000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H11">
-        <v>1.822595</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I11">
-        <v>0.01956977087517835</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J11">
-        <v>0.01313217849150916</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N11">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q11">
-        <v>0.2176111601516667</v>
+        <v>37.38575121429111</v>
       </c>
       <c r="R11">
-        <v>1.30566696091</v>
+        <v>336.47176092862</v>
       </c>
       <c r="S11">
-        <v>0.002354042359272067</v>
+        <v>0.190925850709433</v>
       </c>
       <c r="T11">
-        <v>0.001579666140994223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.9112975000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.822595</v>
-      </c>
-      <c r="I12">
-        <v>0.01956977087517835</v>
-      </c>
-      <c r="J12">
-        <v>0.01313217849150916</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.921273</v>
-      </c>
-      <c r="O12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q12">
-        <v>0.5836170939058333</v>
-      </c>
-      <c r="R12">
-        <v>3.501702563435</v>
-      </c>
-      <c r="S12">
-        <v>0.006313368118124399</v>
-      </c>
-      <c r="T12">
-        <v>0.004236548171086204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.9112975000000001</v>
-      </c>
-      <c r="H13">
-        <v>1.822595</v>
-      </c>
-      <c r="I13">
-        <v>0.01956977087517835</v>
-      </c>
-      <c r="J13">
-        <v>0.01313217849150916</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>1.105929</v>
-      </c>
-      <c r="N13">
-        <v>3.317787</v>
-      </c>
-      <c r="O13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q13">
-        <v>1.0078303328775</v>
-      </c>
-      <c r="R13">
-        <v>6.046981997265001</v>
-      </c>
-      <c r="S13">
-        <v>0.01090236039778189</v>
-      </c>
-      <c r="T13">
-        <v>0.007315964179428736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>8.176158000000001</v>
-      </c>
-      <c r="H14">
-        <v>24.528474</v>
-      </c>
-      <c r="I14">
-        <v>0.1755799162175431</v>
-      </c>
-      <c r="J14">
-        <v>0.1767327896171896</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.2387926666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.716378</v>
-      </c>
-      <c r="O14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="P14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="Q14">
-        <v>1.952406571908</v>
-      </c>
-      <c r="R14">
-        <v>17.571659147172</v>
-      </c>
-      <c r="S14">
-        <v>0.02112045985871923</v>
-      </c>
-      <c r="T14">
-        <v>0.02125913868306295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>8.176158000000001</v>
-      </c>
-      <c r="H15">
-        <v>24.528474</v>
-      </c>
-      <c r="I15">
-        <v>0.1755799162175431</v>
-      </c>
-      <c r="J15">
-        <v>0.1767327896171896</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N15">
-        <v>1.921273</v>
-      </c>
-      <c r="O15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q15">
-        <v>5.236210536378</v>
-      </c>
-      <c r="R15">
-        <v>47.125894827402</v>
-      </c>
-      <c r="S15">
-        <v>0.0566435167944033</v>
-      </c>
-      <c r="T15">
-        <v>0.05701544318086876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>8.176158000000001</v>
-      </c>
-      <c r="H16">
-        <v>24.528474</v>
-      </c>
-      <c r="I16">
-        <v>0.1755799162175431</v>
-      </c>
-      <c r="J16">
-        <v>0.1767327896171896</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>1.105929</v>
-      </c>
-      <c r="N16">
-        <v>3.317787</v>
-      </c>
-      <c r="O16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q16">
-        <v>9.042250240782</v>
-      </c>
-      <c r="R16">
-        <v>81.38025216703801</v>
-      </c>
-      <c r="S16">
-        <v>0.09781593956442057</v>
-      </c>
-      <c r="T16">
-        <v>0.09845820775325789</v>
+        <v>0.1918287188206756</v>
       </c>
     </row>
   </sheetData>
